--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -614,7 +614,7 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_SimpleObservationCategory_VS</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>93</v>
